--- a/PyCHAM/input/auto_call_test/J_values.xlsx
+++ b/PyCHAM/input/auto_call_test/J_values.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/PyCHAM/PyCHAM/input/auto_call_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899BC311-3357-404C-8285-BFC5CA3E719C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D39B4A-D092-F840-9F30-4EF1CBB8F162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="5560" windowWidth="19820" windowHeight="13060" xr2:uid="{A70C4704-9397-D343-AB6F-2E97A0C50752}"/>
+    <workbookView xWindow="9220" yWindow="5560" windowWidth="19820" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -409,11 +393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1449E95-91E5-2748-85CF-FF0DB41C6E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A63"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,49 +419,47 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>3.7803232981331802E-5</v>
+        <v>1.2555707652560899E-5</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>4.4078481005788302E-4</v>
+        <v>3.6530537553433877E-4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>7.8754266879088197E-6</v>
+        <v>4.7454543339847791E-6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>8.9200024995812303E-3</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2.2305925856802002E-2</v>
+        <v>1.9322719680027311E-2</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.15417136805897699</v>
+        <v>0.1330083333695623</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1.98234845180609E-3</v>
+        <v>1.475818292004569E-3</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>6.85017331612747E-7</v>
+        <v>3.1992967594507359E-7</v>
       </c>
       <c r="B10" s="2"/>
     </row>
@@ -495,55 +477,55 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>3.2612925028062997E-5</v>
+        <v>1.8458144988659311E-5</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>4.9613155147357398E-5</v>
+        <v>3.2681779883295727E-5</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>4.8396970157070204E-6</v>
+        <v>2.144166657079421E-6</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2.0125755213063901E-5</v>
+        <v>9.8416340104174791E-6</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>1.9911969129631701E-5</v>
+        <v>1.114419511535966E-5</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>1.19457551189588E-5</v>
+        <v>6.6857187744367589E-6</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>5.4992480898432998E-5</v>
+        <v>3.0890984278999238E-5</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>8.4621208844657298E-6</v>
+        <v>5.8776926948851533E-6</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>8.4621208844657298E-6</v>
+        <v>5.8776926948851533E-6</v>
       </c>
       <c r="B21" s="2"/>
     </row>
@@ -555,25 +537,25 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>6.0946115410999195E-7</v>
+        <v>2.4701135206017298E-7</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>3.9809429848015299E-6</v>
+        <v>1.9022185785873721E-6</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1.3655753381641E-5</v>
+        <v>9.5009619041182035E-6</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>1.3655753381641E-5</v>
+        <v>9.5009619041182035E-6</v>
       </c>
       <c r="B26" s="2"/>
     </row>
@@ -615,31 +597,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>5.5985744988283398E-5</v>
+        <v>4.6695485010198872E-5</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>8.4408018740552905E-6</v>
+        <v>7.0401374040212168E-6</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>2.7829419491814201E-5</v>
+        <v>1.7061914018996071E-5</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>1.24835302421675E-4</v>
+        <v>1.0175562906636281E-4</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2.6825378631432001E-4</v>
+        <v>2.200041244771309E-4</v>
       </c>
       <c r="B37" s="1"/>
     </row>
@@ -675,7 +657,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>5.7866654027044499E-6</v>
+        <v>3.554602245854493E-6</v>
       </c>
       <c r="B43" s="2"/>
     </row>
@@ -735,43 +717,43 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>1.15540010063897E-6</v>
+        <v>5.5554323438342835E-7</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>1.36410777623595E-6</v>
+        <v>6.2238913000067447E-7</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1.7900489670014E-6</v>
+        <v>8.3885257214030046E-7</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>2.9854154680896699E-6</v>
+        <v>1.46648394297876E-6</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>8.3327435014852601E-6</v>
+        <v>4.3834187939805212E-6</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>5.4596736851412899E-6</v>
+        <v>2.7920926215024512E-6</v>
       </c>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>2.4370832079144501E-6</v>
+        <v>1.0936153447983891E-6</v>
       </c>
       <c r="B59" s="1"/>
     </row>
@@ -795,7 +777,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>5.7765656293035496E-4</v>
+        <v>3.8969446695129138E-4</v>
       </c>
       <c r="B63" s="1"/>
     </row>

--- a/PyCHAM/input/auto_call_test/J_values.xlsx
+++ b/PyCHAM/input/auto_call_test/J_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/PyCHAM/PyCHAM/input/auto_call_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D39B4A-D092-F840-9F30-4EF1CBB8F162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67873AF-8E7E-FE44-96E7-46479DFB7429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9220" yWindow="5560" windowWidth="19820" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,9 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>6.7790000000000003E-3</v>
+      </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
